--- a/custom/uploads/exportExcel/export_payment.xlsx
+++ b/custom/uploads/exportExcel/export_payment.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\quyettam\custom\include\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\quyettam\custom\uploads\exportExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PHIẾU GIAO HÀNG</t>
   </si>
@@ -38,9 +38,6 @@
     <t>TÊN HÀNG</t>
   </si>
   <si>
-    <t>S.LƯỢNG</t>
-  </si>
-  <si>
     <t>ĐƠN GIÁ</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
   </si>
   <si>
     <t>TỔNG CỘNG</t>
-  </si>
-  <si>
-    <t>Cộng thành tiền (viết bằng chữ):</t>
   </si>
   <si>
     <t>Người nhận hàng</t>
@@ -165,6 +159,15 @@
   </si>
   <si>
     <t xml:space="preserve">Tên khách hàng: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cộng thành tiền (viết bằng chữ): </t>
+  </si>
+  <si>
+    <t>ĐVT</t>
+  </si>
+  <si>
+    <t>SL</t>
   </si>
 </sst>
 </file>
@@ -294,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -305,9 +308,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -321,11 +321,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,22 +373,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,13 +402,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>50936</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>478569</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>178959</xdr:rowOff>
+      <xdr:colOff>592869</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -407,8 +431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="184286" y="535415"/>
-          <a:ext cx="789583" cy="912384"/>
+          <a:off x="203336" y="47625"/>
+          <a:ext cx="846733" cy="969534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,74 +707,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
+    <row r="1" spans="1:9" ht="24.6">
       <c r="A1" s="2"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="2"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="2"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -759,32 +788,35 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="22.5">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="21.75" customHeight="1">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="6" customHeight="1">
+      <c r="B7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="6" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -793,223 +825,243 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1">
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1">
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1">
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1">
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1">
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="4">
         <v>10</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1">
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="4">
         <v>11</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="4">
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="4">
         <v>13</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="4">
         <v>14</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="4">
         <v>15</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <f>SUM(G10:G24)</f>
+      <c r="B25" s="6"/>
+      <c r="C25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <f>SUM(H10:H24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1018,82 +1070,94 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="2"/>
-      <c r="B27" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75">
+      <c r="B27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="2"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
+      <c r="E30" s="2"/>
+      <c r="F30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="2"/>
-      <c r="B31" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B27:G28"/>
+  <mergeCells count="27">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C17:D17"/>
@@ -1102,19 +1166,15 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:C4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B27:H28"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="11" scale="89" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
